--- a/productie_bodem_test_geom.xlsx
+++ b/productie_bodem_test_geom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vercrume\OneDrive - Vlaamse overheid - Office 365\SANDBOX\002_Bodemleven\xls2xml - Github\xls2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vlaamseoverheid-my.sharepoint.com/personal/max_vercruyssen_vlaanderen_be/Documents/SANDBOX/002_Bodemleven/xls2xml - Github/xls2xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30A3B41-D449-4DD5-A7E5-2E2BFD19E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A30A3B41-D449-4DD5-A7E5-2E2BFD19E481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5E3610-BD42-4081-B4BF-782085EACB85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6215,7 +6215,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6236,6 +6236,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -43743,37 +43746,27 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DG2:DH2"/>
-    <mergeCell ref="DI2:DJ2"/>
-    <mergeCell ref="DK2:DL2"/>
-    <mergeCell ref="DM2:DN2"/>
-    <mergeCell ref="DO2:DP2"/>
-    <mergeCell ref="CW2:CX2"/>
-    <mergeCell ref="CY2:CZ2"/>
-    <mergeCell ref="DA2:DB2"/>
-    <mergeCell ref="DC2:DD2"/>
-    <mergeCell ref="DE2:DF2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="CE1:CR1"/>
-    <mergeCell ref="CS2:CT2"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="CS1:DP1"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="BW1:CD1"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC1:AJ1"/>
     <mergeCell ref="BE2:BF2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BI2:BJ2"/>
@@ -43790,27 +43783,37 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="BW1:CD1"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="CE1:CR1"/>
+    <mergeCell ref="CS2:CT2"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="CS1:DP1"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="CI2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CW2:CX2"/>
+    <mergeCell ref="CY2:CZ2"/>
+    <mergeCell ref="DA2:DB2"/>
+    <mergeCell ref="DC2:DD2"/>
+    <mergeCell ref="DE2:DF2"/>
+    <mergeCell ref="DG2:DH2"/>
+    <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
+    <mergeCell ref="DM2:DN2"/>
+    <mergeCell ref="DO2:DP2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="CI4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -44704,6 +44707,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AL2:AS2"/>
@@ -44713,12 +44722,6 @@
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001 AM9:AM1000001 AK9:AK1000001 AF9:AF1000001 W9:W1000001" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -44826,7 +44829,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45141,7 +45144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2029</v>
       </c>
@@ -45154,7 +45157,7 @@
       <c r="D7" s="3" t="s">
         <v>2033</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>2032</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -45671,12 +45674,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="K3:L3"/>
@@ -45685,6 +45682,12 @@
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="P2:S2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AA2:AH2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001 AB8:AB1000001 Z8:Z1000001 S8:S1000001" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -46517,6 +46520,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF2:AT2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="BC2:BF2"/>
@@ -46526,18 +46541,6 @@
     <mergeCell ref="AN5:AQ5"/>
     <mergeCell ref="AJ4:AQ4"/>
     <mergeCell ref="AI3:AT3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF2:AT2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="F2:P2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1000001 BF9:BF1000001 AW9:AW1000001" xr:uid="{00000000-0002-0000-0400-000001000000}">
@@ -48181,23 +48184,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="AY2:BG2"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="Y3:AF3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="D2:G2"/>
@@ -48205,6 +48191,23 @@
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="AY2:BG2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001 AZ7:AZ1000001 AX7:AX1000001 AO7:AP1000001 AG7:AG1000001" xr:uid="{00000000-0002-0000-0700-000004000000}">
@@ -49238,6 +49241,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AV4"/>
+    <mergeCell ref="AO3:AV3"/>
+    <mergeCell ref="AJ2:AV2"/>
     <mergeCell ref="BP3:BQ3"/>
     <mergeCell ref="BV3:BW3"/>
     <mergeCell ref="BO2:BW2"/>
@@ -49247,23 +49267,6 @@
     <mergeCell ref="BE2:BG2"/>
     <mergeCell ref="BI3:BM3"/>
     <mergeCell ref="BH2:BN2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AO3:AV3"/>
-    <mergeCell ref="AJ2:AV2"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="D3:O3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP8:BP1000001 BN8:BN1000001 BG8:BG1000001 AG8:AH1000001" xr:uid="{00000000-0002-0000-0800-000008000000}">
@@ -49364,4 +49367,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0c0338a6-9561-4ee8-b8d6-4e89cbd520a0}" enabled="0" method="" siteId="{0c0338a6-9561-4ee8-b8d6-4e89cbd520a0}" removed="1"/>
+</clbl:labelList>
 </file>